--- a/angular/src/assets/sampleFiles/business/ImportTestDriveCampaign.xlsx
+++ b/angular/src/assets/sampleFiles/business/ImportTestDriveCampaign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ImportTestDriveCampaign" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Import Test Drive Campaign</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Code</t>
   </si>
   <si>
-    <t>ExpriedDay</t>
-  </si>
-  <si>
     <t>Dealer</t>
   </si>
   <si>
@@ -92,6 +89,18 @@
   </si>
   <si>
     <t>C-GL</t>
+  </si>
+  <si>
+    <t>ExpriedDayTo</t>
+  </si>
+  <si>
+    <t>ExpiredDayFrom</t>
+  </si>
+  <si>
+    <t>ExpriedDayFrom</t>
+  </si>
+  <si>
+    <t>19/09/2022</t>
   </si>
 </sst>
 </file>
@@ -508,27 +517,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17" style="7" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -541,9 +551,10 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -554,36 +565,39 @@
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
+      <c r="O2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -592,27 +606,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="3" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -625,9 +639,10 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -637,104 +652,113 @@
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="J3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="4">
         <v>100000</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>1200000</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
